--- a/Bon Blanko/Desa Pameungpeuk/Bon Blanko Desa Pameungpeuk.xlsx
+++ b/Bon Blanko/Desa Pameungpeuk/Bon Blanko Desa Pameungpeuk.xlsx
@@ -39,9 +39,6 @@
     <t>SERTIPIKAT ELEKTRONIK</t>
   </si>
   <si>
-    <t>DESA PAAS</t>
-  </si>
-  <si>
     <t>AAT KUSMIATI</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>ENOK</t>
+  </si>
+  <si>
+    <t>DESA PAMEUNGPEUK</t>
   </si>
 </sst>
 </file>
@@ -749,14 +749,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,40 +1116,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1179,10 +1179,10 @@
         <v>82926</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E6" s="3">
         <v>10338</v>
@@ -1197,10 +1197,10 @@
         <v>82927</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>10339</v>
@@ -1215,10 +1215,10 @@
         <v>82928</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="3">
         <v>10340</v>
@@ -1233,10 +1233,10 @@
         <v>82929</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
         <v>10340</v>
@@ -1251,10 +1251,10 @@
         <v>82930</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>10341</v>
@@ -1269,10 +1269,10 @@
         <v>82931</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <v>10341</v>
@@ -1287,10 +1287,10 @@
         <v>82932</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>10342</v>
@@ -1305,10 +1305,10 @@
         <v>82933</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E13" s="3">
         <v>10342</v>
@@ -1323,10 +1323,10 @@
         <v>82934</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
         <v>10342</v>
@@ -1341,10 +1341,10 @@
         <v>82940</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E15" s="3">
         <v>10343</v>
@@ -1359,10 +1359,10 @@
         <v>82941</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="3">
         <v>10344</v>
@@ -1377,10 +1377,10 @@
         <v>82942</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E17" s="3">
         <v>10345</v>
@@ -1395,10 +1395,10 @@
         <v>82943</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E18" s="3">
         <v>10345</v>
@@ -1413,10 +1413,10 @@
         <v>82944</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3">
         <v>10345</v>
@@ -1431,10 +1431,10 @@
         <v>82945</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E20" s="3">
         <v>10346</v>
@@ -1449,10 +1449,10 @@
         <v>82946</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3">
         <v>10346</v>
@@ -1467,10 +1467,10 @@
         <v>82947</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3">
         <v>10346</v>
@@ -1485,10 +1485,10 @@
         <v>82949</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E23" s="3">
         <v>10347</v>
@@ -1503,10 +1503,10 @@
         <v>82950</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="3">
         <v>10347</v>
@@ -1521,10 +1521,10 @@
         <v>82951</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="3">
         <v>10347</v>
@@ -1539,10 +1539,10 @@
         <v>82952</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E26" s="3">
         <v>10348</v>
@@ -1557,10 +1557,10 @@
         <v>82953</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3">
         <v>10348</v>
@@ -1575,10 +1575,10 @@
         <v>82955</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="3">
         <v>10348</v>
@@ -1593,10 +1593,10 @@
         <v>82956</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>10348</v>
@@ -1611,10 +1611,10 @@
         <v>82957</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E30" s="3">
         <v>10349</v>
@@ -1629,10 +1629,10 @@
         <v>82959</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="3">
         <v>10349</v>
@@ -1647,10 +1647,10 @@
         <v>82960</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="3">
         <v>10349</v>
@@ -1665,10 +1665,10 @@
         <v>82961</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="3">
         <v>10349</v>
@@ -1683,10 +1683,10 @@
         <v>82963</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E34" s="3">
         <v>10786</v>
@@ -1701,10 +1701,10 @@
         <v>82965</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E35" s="3">
         <v>10350</v>
@@ -1715,14 +1715,14 @@
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>82966</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="3">
         <v>10351</v>
@@ -1733,14 +1733,14 @@
       <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>82967</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3">
         <v>10351</v>
@@ -1751,14 +1751,14 @@
       <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>82968</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="3">
         <v>10351</v>
@@ -1769,14 +1769,14 @@
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>82995</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="3">
         <v>10352</v>
@@ -1787,14 +1787,14 @@
       <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>82996</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E40" s="3">
         <v>10353</v>
@@ -1805,14 +1805,14 @@
       <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>82997</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E41" s="3">
         <v>10354</v>
@@ -1823,14 +1823,14 @@
       <c r="A42" s="2">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>82998</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3">
         <v>10354</v>
@@ -1841,14 +1841,14 @@
       <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>83000</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="3">
         <v>10354</v>
@@ -1859,14 +1859,14 @@
       <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>83001</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E44" s="3">
         <v>10355</v>
@@ -1877,14 +1877,14 @@
       <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>83002</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E45" s="3">
         <v>10356</v>
@@ -1895,14 +1895,14 @@
       <c r="A46" s="2">
         <v>41</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>83003</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E46" s="3">
         <v>10357</v>
@@ -1913,14 +1913,14 @@
       <c r="A47" s="2">
         <v>42</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>83004</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E47" s="3">
         <v>10358</v>
@@ -1931,14 +1931,14 @@
       <c r="A48" s="2">
         <v>43</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>83005</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="3">
         <v>10358</v>
@@ -1949,14 +1949,14 @@
       <c r="A49" s="2">
         <v>44</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>83006</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E49" s="3">
         <v>10359</v>
@@ -1967,14 +1967,14 @@
       <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>83007</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3">
         <v>10359</v>
@@ -1985,14 +1985,14 @@
       <c r="A51" s="2">
         <v>46</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>83008</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="3">
         <v>10359</v>
@@ -2003,14 +2003,14 @@
       <c r="A52" s="2">
         <v>47</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>83009</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3">
         <v>10359</v>
@@ -2021,14 +2021,14 @@
       <c r="A53" s="2">
         <v>48</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>83010</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3">
         <v>10359</v>
@@ -2039,14 +2039,14 @@
       <c r="A54" s="2">
         <v>49</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>83011</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="3">
         <v>10359</v>
@@ -2057,14 +2057,14 @@
       <c r="A55" s="2">
         <v>50</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>83012</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3">
         <v>10359</v>
